--- a/PID LISTS/A05.xlsx
+++ b/PID LISTS/A05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\MQB TUning\PID Lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Documents\YakTuner\PID LISTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3325C644-A01E-49A6-9262-5273221EBB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C27276-B35C-4BBF-B396-05C1D3494CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2"/>
+    <workbookView xWindow="4110" yWindow="5670" windowWidth="29205" windowHeight="15015" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WG" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="71">
   <si>
     <t>%01.1f</t>
   </si>
@@ -78,9 +78,6 @@
     <t>x / 655.36</t>
   </si>
   <si>
-    <t>Eng State</t>
-  </si>
-  <si>
     <t>Exh Flow Fac</t>
   </si>
   <si>
@@ -147,9 +144,6 @@
     <t>x * 0.0000610352</t>
   </si>
   <si>
-    <t>FAC_LAM_COR</t>
-  </si>
-  <si>
     <t>x * 0.00152588</t>
   </si>
   <si>
@@ -201,9 +195,6 @@
     <t>0xd00005b8</t>
   </si>
   <si>
-    <t>0xd0012ac7</t>
-  </si>
-  <si>
     <t>0xb0009908</t>
   </si>
   <si>
@@ -216,9 +207,6 @@
     <t>0xb0008360</t>
   </si>
   <si>
-    <t>0xb000c044</t>
-  </si>
-  <si>
     <t>0xd0017c0f</t>
   </si>
   <si>
@@ -241,12 +229,18 @@
   </si>
   <si>
     <t>0xb0008230</t>
+  </si>
+  <si>
+    <t>FAC_LAM_OUT</t>
+  </si>
+  <si>
+    <t>0xb000c05e</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1080,7 +1074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1106,7 +1100,7 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F1">
         <v>2</v>
@@ -1147,7 +1141,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -1176,16 +1170,16 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1214,16 +1208,16 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -1252,19 +1246,19 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -1293,19 +1287,19 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
       <c r="D6" t="s">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1334,19 +1328,19 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -1375,7 +1369,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -1384,7 +1378,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1413,19 +1407,19 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -1454,19 +1448,19 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -1495,7 +1489,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -1504,7 +1498,7 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1537,11 +1531,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1563,7 +1557,7 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F1">
         <v>2</v>
@@ -1592,34 +1586,34 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>1.25</v>
       </c>
       <c r="J2">
-        <v>-1000</v>
+        <v>-100</v>
       </c>
       <c r="K2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1630,16 +1624,16 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1668,28 +1662,28 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="I4">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>-100</v>
@@ -1706,34 +1700,37 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>320</v>
+      </c>
+      <c r="J5">
         <v>-1</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>-100</v>
-      </c>
       <c r="K5">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1744,37 +1741,34 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="I6">
-        <v>320</v>
+        <v>50</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>-100</v>
       </c>
       <c r="K6">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1788,31 +1782,31 @@
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="J7">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1823,34 +1817,34 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>-1000</v>
+        <v>-100</v>
       </c>
       <c r="K8">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1861,28 +1855,28 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="J9">
         <v>-100</v>
@@ -1894,44 +1888,6 @@
         <v>0</v>
       </c>
       <c r="M9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>26</v>
-      </c>
-      <c r="J10">
-        <v>-100</v>
-      </c>
-      <c r="K10">
-        <v>100</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1941,10 +1897,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1967,7 +1923,7 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F1">
         <v>2</v>
@@ -1996,7 +1952,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -2008,7 +1964,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2037,7 +1993,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -2049,7 +2005,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2078,7 +2034,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -2090,7 +2046,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2119,7 +2075,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -2131,7 +2087,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2172,7 +2128,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F6">
         <v>4</v>
